--- a/ITC.xlsx
+++ b/ITC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adity\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adity\OneDrive\Desktop\Financial_Modelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C267F551-0A0B-4269-90A4-552D57A4776E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13C033C-6D70-45FE-BAF6-E8D240B5F54D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="14016" windowHeight="12336" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input Sheet" sheetId="8" r:id="rId1"/>
@@ -1180,12 +1180,47 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="18" fillId="8" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="18" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1196,49 +1231,14 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="18" fillId="8" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="18" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -14186,10 +14186,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="52"/>
+      <c r="C2" s="63"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="38" t="s">
@@ -25639,8 +25639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E350FD5-B47F-453A-8EC0-D7B6E36883B9}">
   <dimension ref="B2:P57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="62" zoomScaleNormal="245" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A24" zoomScale="60" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -25661,19 +25661,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="18">
-      <c r="B2" s="54" t="str">
+      <c r="B2" s="73" t="str">
         <f>'Data Sheet'!B1&amp;" One Page Profile"</f>
         <v>ITC LTD One Page Profile</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
     </row>
     <row r="3" spans="2:11" ht="8.4" customHeight="1">
       <c r="B3" s="27"/>
@@ -25689,18 +25689,18 @@
     </row>
     <row r="4" spans="2:11" ht="49.2" customHeight="1">
       <c r="B4" s="28"/>
-      <c r="C4" s="55" t="str">
+      <c r="C4" s="74" t="str">
         <f>'Input Sheet'!C2</f>
         <v>ITC Limited is an Indian conglomerate, headquartered in Kolkata. It has a presence across six business segments, namely FMCG, agribusiness, information technology, paper products, and packaging. It generates a plurality of its revenue from tobacco products.</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="31" t="s">
@@ -25731,11 +25731,11 @@
         <f>'Data Sheet'!K16</f>
         <v>45747</v>
       </c>
-      <c r="I6" s="53" t="s">
+      <c r="I6" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
     </row>
     <row r="7" spans="2:11" ht="11.4" customHeight="1">
       <c r="B7" s="33"/>
@@ -26014,11 +26014,11 @@
       <c r="G19" s="30">
         <v>45747</v>
       </c>
-      <c r="I19" s="53" t="s">
+      <c r="I19" s="69" t="s">
         <v>159</v>
       </c>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
     </row>
     <row r="20" spans="2:11" ht="3.6" customHeight="1"/>
     <row r="21" spans="2:11">
@@ -26176,22 +26176,22 @@
       <c r="B28" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="C28" s="57" t="s">
+      <c r="C28" s="66" t="s">
         <v>146</v>
       </c>
-      <c r="D28" s="57"/>
+      <c r="D28" s="66"/>
       <c r="E28" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="F28" s="57" t="s">
+      <c r="F28" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="G28" s="58"/>
-      <c r="I28" s="53" t="s">
+      <c r="G28" s="67"/>
+      <c r="I28" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="69"/>
     </row>
     <row r="29" spans="2:11" ht="6.6" customHeight="1"/>
     <row r="30" spans="2:11">
@@ -26199,345 +26199,347 @@
         <f t="array" ref="B30:B39">L38:L47</f>
         <v>Tobacco Manufacturers (India) Limited</v>
       </c>
-      <c r="C30" s="59">
+      <c r="C30" s="68">
         <f>M38</f>
         <v>222.8495863</v>
       </c>
-      <c r="D30" s="59"/>
+      <c r="D30" s="68"/>
       <c r="E30" s="50">
         <f t="shared" ref="E30:E39" si="0">(N38)/100</f>
         <v>0.1779</v>
       </c>
-      <c r="F30" s="59">
+      <c r="F30" s="68">
         <f>O38</f>
         <v>78019.64016363</v>
       </c>
-      <c r="G30" s="59"/>
+      <c r="G30" s="68"/>
     </row>
     <row r="31" spans="2:11">
       <c r="B31" s="43" t="str">
         <v>Life Insurance Corporation of India</v>
       </c>
-      <c r="C31" s="59">
+      <c r="C31" s="68">
         <f t="shared" ref="C31:C39" si="1">M39</f>
         <v>198.58072329999999</v>
       </c>
-      <c r="D31" s="59"/>
+      <c r="D31" s="68"/>
       <c r="E31" s="50">
         <f t="shared" si="0"/>
         <v>0.15859999999999999</v>
       </c>
-      <c r="F31" s="59">
+      <c r="F31" s="68">
         <f t="shared" ref="F31:F39" si="2">O39</f>
         <v>69523.111227329995</v>
       </c>
-      <c r="G31" s="59"/>
+      <c r="G31" s="68"/>
     </row>
     <row r="32" spans="2:11">
       <c r="B32" s="43" t="str">
         <v>Specified Undertaking of the Unit Trust of India</v>
       </c>
-      <c r="C32" s="59">
+      <c r="C32" s="68">
         <f t="shared" si="1"/>
         <v>97.453142700000001</v>
       </c>
-      <c r="D32" s="59"/>
+      <c r="D32" s="68"/>
       <c r="E32" s="50">
         <f t="shared" si="0"/>
         <v>7.7800000000000008E-2</v>
       </c>
-      <c r="F32" s="59">
+      <c r="F32" s="68">
         <f t="shared" si="2"/>
         <v>34118.345259270005</v>
       </c>
-      <c r="G32" s="59"/>
+      <c r="G32" s="68"/>
     </row>
     <row r="33" spans="2:16">
       <c r="B33" s="43" t="str">
         <v>Myddleton Investment Company Limited</v>
       </c>
-      <c r="C33" s="59">
+      <c r="C33" s="68">
         <f t="shared" si="1"/>
         <v>48.631194000000001</v>
       </c>
-      <c r="D33" s="59"/>
+      <c r="D33" s="68"/>
       <c r="E33" s="50">
         <f t="shared" si="0"/>
         <v>3.8800000000000001E-2</v>
       </c>
-      <c r="F33" s="59">
+      <c r="F33" s="68">
         <f t="shared" si="2"/>
         <v>17025.781019400001</v>
       </c>
-      <c r="G33" s="59"/>
+      <c r="G33" s="68"/>
     </row>
     <row r="34" spans="2:16">
       <c r="B34" s="43" t="str">
         <v>SBI Mutual Funds</v>
       </c>
-      <c r="C34" s="59">
+      <c r="C34" s="68">
         <f t="shared" si="1"/>
         <v>40.798409499999998</v>
       </c>
-      <c r="D34" s="59"/>
+      <c r="D34" s="68"/>
       <c r="E34" s="50">
         <f t="shared" si="0"/>
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="F34" s="59">
+      <c r="F34" s="68">
         <f t="shared" si="2"/>
         <v>14283.52316595</v>
       </c>
-      <c r="G34" s="59"/>
+      <c r="G34" s="68"/>
     </row>
     <row r="35" spans="2:16">
       <c r="B35" s="43" t="str">
         <v>QIB - Insurance Company Registered</v>
       </c>
-      <c r="C35" s="59">
+      <c r="C35" s="68">
         <f t="shared" si="1"/>
         <v>33.990465800000003</v>
       </c>
-      <c r="D35" s="59"/>
+      <c r="D35" s="68"/>
       <c r="E35" s="50">
         <f t="shared" si="0"/>
         <v>2.7099999999999999E-2</v>
       </c>
-      <c r="F35" s="59">
+      <c r="F35" s="68">
         <f t="shared" si="2"/>
         <v>11900.062076580001</v>
       </c>
-      <c r="G35" s="59"/>
-      <c r="L35" s="75"/>
-      <c r="M35" s="75"/>
-      <c r="N35" s="75">
+      <c r="G35" s="68"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="59"/>
+      <c r="N35" s="59">
         <v>100</v>
       </c>
-      <c r="O35" s="75"/>
-      <c r="P35" s="75"/>
+      <c r="O35" s="59"/>
+      <c r="P35" s="59"/>
     </row>
     <row r="36" spans="2:16">
       <c r="B36" s="43" t="str">
         <v>ICICI Prudential Mutual Funds</v>
       </c>
-      <c r="C36" s="59">
+      <c r="C36" s="68">
         <f t="shared" si="1"/>
         <v>28.535049300000001</v>
       </c>
-      <c r="D36" s="59"/>
+      <c r="D36" s="68"/>
       <c r="E36" s="50">
         <f t="shared" si="0"/>
         <v>2.2799999999999997E-2</v>
       </c>
-      <c r="F36" s="59">
+      <c r="F36" s="68">
         <f t="shared" si="2"/>
         <v>9990.1207599300014</v>
       </c>
-      <c r="G36" s="59"/>
-      <c r="L36" s="75"/>
-      <c r="M36" s="75"/>
-      <c r="N36" s="75">
+      <c r="G36" s="68"/>
+      <c r="L36" s="59"/>
+      <c r="M36" s="59"/>
+      <c r="N36" s="59">
         <v>10000000</v>
       </c>
-      <c r="O36" s="75"/>
-      <c r="P36" s="75"/>
+      <c r="O36" s="59"/>
+      <c r="P36" s="59"/>
     </row>
     <row r="37" spans="2:16">
       <c r="B37" s="43" t="str">
         <v>GQG Partners Emerging Markets Equity Fund</v>
       </c>
-      <c r="C37" s="59">
+      <c r="C37" s="68">
         <f t="shared" si="1"/>
         <v>26.343439799999999</v>
       </c>
-      <c r="D37" s="59"/>
+      <c r="D37" s="68"/>
       <c r="E37" s="50">
         <f t="shared" si="0"/>
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="F37" s="59">
+      <c r="F37" s="68">
         <f>O45</f>
         <v>9222.8382739799999</v>
       </c>
-      <c r="G37" s="59"/>
-      <c r="L37" s="75" t="s">
+      <c r="G37" s="68"/>
+      <c r="L37" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="M37" s="75" t="s">
+      <c r="M37" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="N37" s="75" t="s">
+      <c r="N37" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="O37" s="75" t="s">
+      <c r="O37" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="P37" s="75"/>
+      <c r="P37" s="59"/>
     </row>
     <row r="38" spans="2:16">
       <c r="B38" s="43" t="str">
         <v>General Insurance Corporation of India</v>
       </c>
-      <c r="C38" s="59">
+      <c r="C38" s="68">
         <f t="shared" si="1"/>
         <v>21.708550800000001</v>
       </c>
-      <c r="D38" s="59"/>
+      <c r="D38" s="68"/>
       <c r="E38" s="50">
         <f t="shared" si="0"/>
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="F38" s="59">
+      <c r="F38" s="68">
         <f t="shared" si="2"/>
         <v>7600.1636350800009</v>
       </c>
-      <c r="G38" s="59"/>
-      <c r="L38" s="75" t="s">
+      <c r="G38" s="68"/>
+      <c r="L38" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="M38" s="75">
+      <c r="M38" s="59">
         <f>(2228495863)/10000000</f>
         <v>222.8495863</v>
       </c>
-      <c r="N38" s="75">
+      <c r="N38" s="59">
         <v>17.79</v>
       </c>
-      <c r="O38" s="75">
+      <c r="O38" s="59">
         <f>350.1*M38</f>
         <v>78019.64016363</v>
       </c>
-      <c r="P38" s="75"/>
+      <c r="P38" s="59"/>
     </row>
     <row r="39" spans="2:16">
       <c r="B39" s="43" t="str">
         <v>Goldman Sachs Trust II</v>
       </c>
-      <c r="C39" s="59">
+      <c r="C39" s="68">
         <f t="shared" si="1"/>
         <v>20.709179500000001</v>
       </c>
-      <c r="D39" s="59"/>
+      <c r="D39" s="68"/>
       <c r="E39" s="50">
         <f t="shared" si="0"/>
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="F39" s="59">
+      <c r="F39" s="68">
         <f t="shared" si="2"/>
         <v>7250.2837429500005</v>
       </c>
-      <c r="G39" s="59"/>
-      <c r="L39" s="75" t="s">
+      <c r="G39" s="68"/>
+      <c r="L39" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="M39" s="75">
+      <c r="M39" s="59">
         <f>(1985807233)/10000000</f>
         <v>198.58072329999999</v>
       </c>
-      <c r="N39" s="75">
+      <c r="N39" s="59">
         <v>15.86</v>
       </c>
-      <c r="O39" s="75">
+      <c r="O39" s="59">
         <f t="shared" ref="O39:O47" si="3">350.1*M39</f>
         <v>69523.111227329995</v>
       </c>
-      <c r="P39" s="75"/>
+      <c r="P39" s="59"/>
     </row>
     <row r="40" spans="2:16">
-      <c r="L40" s="75" t="s">
+      <c r="L40" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="M40" s="75">
+      <c r="M40" s="59">
         <f>(974531427)/10000000</f>
         <v>97.453142700000001</v>
       </c>
-      <c r="N40" s="75">
+      <c r="N40" s="59">
         <v>7.78</v>
       </c>
-      <c r="O40" s="75">
+      <c r="O40" s="59">
         <f t="shared" si="3"/>
         <v>34118.345259270005</v>
       </c>
-      <c r="P40" s="75"/>
+      <c r="P40" s="59"/>
     </row>
     <row r="41" spans="2:16" ht="14.4" customHeight="1">
       <c r="B41" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="C41" s="62" t="s">
+      <c r="C41" s="65" t="s">
         <v>169</v>
       </c>
-      <c r="D41" s="62"/>
+      <c r="D41" s="65"/>
       <c r="E41" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="F41" s="57" t="s">
+      <c r="F41" s="66" t="s">
         <v>170</v>
       </c>
-      <c r="G41" s="58"/>
-      <c r="I41" s="53" t="s">
+      <c r="G41" s="67"/>
+      <c r="I41" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="J41" s="53"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="75" t="s">
+      <c r="J41" s="69"/>
+      <c r="K41" s="69"/>
+      <c r="L41" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="M41" s="75">
+      <c r="M41" s="59">
         <f>(486311940)/10000000</f>
         <v>48.631194000000001</v>
       </c>
-      <c r="N41" s="75">
+      <c r="N41" s="59">
         <v>3.88</v>
       </c>
-      <c r="O41" s="75">
+      <c r="O41" s="59">
         <f t="shared" si="3"/>
         <v>17025.781019400001</v>
       </c>
-      <c r="P41" s="75"/>
+      <c r="P41" s="59"/>
     </row>
     <row r="42" spans="2:16">
-      <c r="B42" t="s">
+      <c r="B42" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="E42">
+      <c r="D42" s="43"/>
+      <c r="E42" s="43">
         <v>25.66</v>
       </c>
-      <c r="F42" s="63">
+      <c r="F42" s="78">
         <v>377</v>
       </c>
-      <c r="G42" s="63"/>
-      <c r="L42" s="75" t="s">
+      <c r="G42" s="78"/>
+      <c r="L42" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="M42" s="75">
+      <c r="M42" s="59">
         <v>40.798409499999998</v>
       </c>
-      <c r="N42" s="75">
+      <c r="N42" s="59">
         <v>3.26</v>
       </c>
-      <c r="O42" s="75">
+      <c r="O42" s="59">
         <f t="shared" si="3"/>
         <v>14283.52316595</v>
       </c>
-      <c r="P42" s="75"/>
+      <c r="P42" s="59"/>
     </row>
     <row r="43" spans="2:16">
-      <c r="B43" t="s">
+      <c r="B43" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="E43">
+      <c r="D43" s="43"/>
+      <c r="E43" s="43">
         <v>8.5299999999999994</v>
       </c>
-      <c r="F43" s="63">
+      <c r="F43" s="78">
         <v>132</v>
       </c>
-      <c r="G43" s="63"/>
+      <c r="G43" s="78"/>
       <c r="I43" s="43" t="s">
         <v>161</v>
       </c>
@@ -26546,325 +26548,301 @@
         <f>'Data Sheet'!B8</f>
         <v>363.95</v>
       </c>
-      <c r="L43" s="75" t="s">
+      <c r="L43" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="M43" s="75">
+      <c r="M43" s="59">
         <f>(339904658)/10000000</f>
         <v>33.990465800000003</v>
       </c>
-      <c r="N43" s="75">
+      <c r="N43" s="59">
         <v>2.71</v>
       </c>
-      <c r="O43" s="75">
+      <c r="O43" s="59">
         <f t="shared" si="3"/>
         <v>11900.062076580001</v>
       </c>
-      <c r="P43" s="75"/>
+      <c r="P43" s="59"/>
     </row>
     <row r="44" spans="2:16">
-      <c r="B44" t="s">
+      <c r="B44" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="E44">
+      <c r="D44" s="43"/>
+      <c r="E44" s="43">
         <v>8.8699999999999992</v>
       </c>
-      <c r="F44" s="63">
+      <c r="F44" s="78">
         <v>99</v>
       </c>
-      <c r="G44" s="63"/>
-      <c r="I44" s="64" t="s">
+      <c r="G44" s="78"/>
+      <c r="I44" s="70" t="s">
         <v>162</v>
       </c>
-      <c r="J44" s="64"/>
-      <c r="K44" s="65">
+      <c r="J44" s="70"/>
+      <c r="K44" s="51">
         <f>'Data Sheet'!B6</f>
         <v>1252.8960021981043</v>
       </c>
-      <c r="L44" s="75" t="s">
+      <c r="L44" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="M44" s="75">
+      <c r="M44" s="59">
         <v>28.535049300000001</v>
       </c>
-      <c r="N44" s="75">
+      <c r="N44" s="59">
         <v>2.2799999999999998</v>
       </c>
-      <c r="O44" s="75">
+      <c r="O44" s="59">
         <f t="shared" si="3"/>
         <v>9990.1207599300014</v>
       </c>
-      <c r="P44" s="75"/>
+      <c r="P44" s="59"/>
     </row>
     <row r="45" spans="2:16" ht="15" thickBot="1">
-      <c r="B45" t="s">
+      <c r="B45" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="E45">
+      <c r="D45" s="43"/>
+      <c r="E45" s="43">
         <v>9.56</v>
       </c>
-      <c r="F45" s="63">
+      <c r="F45" s="78">
         <v>174</v>
       </c>
-      <c r="G45" s="63"/>
-      <c r="I45" s="71" t="s">
+      <c r="G45" s="78"/>
+      <c r="I45" s="55" t="s">
         <v>163</v>
       </c>
-      <c r="J45" s="72"/>
-      <c r="K45" s="73">
+      <c r="J45" s="56"/>
+      <c r="K45" s="57">
         <f>K43*K44</f>
         <v>455991.50000000006</v>
       </c>
-      <c r="L45" s="75" t="s">
+      <c r="L45" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="M45" s="75">
+      <c r="M45" s="59">
         <f>(263434398)/10000000</f>
         <v>26.343439799999999</v>
       </c>
-      <c r="N45" s="75">
+      <c r="N45" s="59">
         <v>2.1</v>
       </c>
-      <c r="O45" s="75">
+      <c r="O45" s="59">
         <f t="shared" si="3"/>
         <v>9222.8382739799999</v>
       </c>
-      <c r="P45" s="75"/>
+      <c r="P45" s="59"/>
     </row>
     <row r="46" spans="2:16">
-      <c r="I46" s="70" t="s">
+      <c r="I46" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="J46" s="70"/>
+      <c r="J46" s="71"/>
       <c r="K46" s="28">
         <f>'Data Sheet'!K69*-1</f>
         <v>-4012.36</v>
       </c>
-      <c r="L46" s="75" t="s">
+      <c r="L46" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="M46" s="75">
+      <c r="M46" s="59">
         <f>(217085508)/10000000</f>
         <v>21.708550800000001</v>
       </c>
-      <c r="N46" s="75">
+      <c r="N46" s="59">
         <v>1.73</v>
       </c>
-      <c r="O46" s="75">
+      <c r="O46" s="59">
         <f t="shared" si="3"/>
         <v>7600.1636350800009</v>
       </c>
-      <c r="P46" s="75"/>
+      <c r="P46" s="59"/>
     </row>
     <row r="47" spans="2:16">
-      <c r="I47" s="67" t="s">
+      <c r="I47" s="72" t="s">
         <v>165</v>
       </c>
-      <c r="J47" s="67"/>
-      <c r="K47" s="66">
+      <c r="J47" s="72"/>
+      <c r="K47" s="52">
         <f>'Data Sheet'!K59</f>
         <v>284.54000000000002</v>
       </c>
-      <c r="L47" s="75" t="s">
+      <c r="L47" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="M47" s="75">
+      <c r="M47" s="59">
         <f>(207091795)/10000000</f>
         <v>20.709179500000001</v>
       </c>
-      <c r="N47" s="75">
+      <c r="N47" s="59">
         <v>1.65</v>
       </c>
-      <c r="O47" s="75">
+      <c r="O47" s="59">
         <f t="shared" si="3"/>
         <v>7250.2837429500005</v>
       </c>
-      <c r="P47" s="75"/>
+      <c r="P47" s="59"/>
     </row>
     <row r="48" spans="2:16">
-      <c r="I48" s="68" t="s">
+      <c r="I48" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="J48" s="69"/>
-      <c r="K48" s="69">
+      <c r="J48" s="54"/>
+      <c r="K48" s="54">
         <v>367.89</v>
       </c>
-      <c r="L48" s="75"/>
-      <c r="M48" s="75"/>
-      <c r="N48" s="75"/>
-      <c r="O48" s="75"/>
-      <c r="P48" s="75"/>
+      <c r="L48" s="59"/>
+      <c r="M48" s="59"/>
+      <c r="N48" s="59"/>
+      <c r="O48" s="59"/>
+      <c r="P48" s="59"/>
     </row>
     <row r="49" spans="2:16" ht="15" thickBot="1">
-      <c r="I49" s="71" t="s">
+      <c r="I49" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="J49" s="72"/>
-      <c r="K49" s="73">
+      <c r="J49" s="56"/>
+      <c r="K49" s="57">
         <f>SUM(K45:K48)</f>
         <v>452631.57000000007</v>
       </c>
-      <c r="L49" s="75" t="s">
+      <c r="L49" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="M49" s="76">
+      <c r="M49" s="60">
         <v>0.37390000000000001</v>
       </c>
-      <c r="N49" s="75"/>
-      <c r="O49" s="75"/>
-      <c r="P49" s="75"/>
+      <c r="N49" s="59"/>
+      <c r="O49" s="59"/>
+      <c r="P49" s="59"/>
     </row>
     <row r="50" spans="2:16">
-      <c r="L50" s="75" t="s">
+      <c r="L50" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="M50" s="76">
+      <c r="M50" s="60">
         <v>0.47410000000000002</v>
       </c>
-      <c r="N50" s="75"/>
-      <c r="O50" s="75"/>
-      <c r="P50" s="75"/>
+      <c r="N50" s="59"/>
+      <c r="O50" s="59"/>
+      <c r="P50" s="59"/>
     </row>
     <row r="51" spans="2:16" ht="15.6">
       <c r="B51" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="C51" s="74"/>
-      <c r="D51" s="74"/>
-      <c r="E51" s="74"/>
-      <c r="F51" s="74"/>
-      <c r="G51" s="74"/>
-      <c r="H51" s="74"/>
-      <c r="I51" s="74"/>
-      <c r="J51" s="74"/>
-      <c r="K51" s="74"/>
-      <c r="L51" s="75" t="s">
+      <c r="C51" s="58"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="58"/>
+      <c r="H51" s="58"/>
+      <c r="I51" s="58"/>
+      <c r="J51" s="58"/>
+      <c r="K51" s="58"/>
+      <c r="L51" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="M51" s="76">
+      <c r="M51" s="60">
         <f>15.16%+M52</f>
         <v>0.15200000000000002</v>
       </c>
-      <c r="N51" s="75"/>
-      <c r="O51" s="75"/>
-      <c r="P51" s="75"/>
+      <c r="N51" s="59"/>
+      <c r="O51" s="59"/>
+      <c r="P51" s="59"/>
     </row>
     <row r="52" spans="2:16" ht="6.6" customHeight="1">
-      <c r="L52" s="75" t="s">
+      <c r="L52" s="59" t="s">
         <v>156</v>
       </c>
-      <c r="M52" s="77">
+      <c r="M52" s="61">
         <f>0.0004</f>
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="N52" s="75"/>
-      <c r="O52" s="75"/>
-      <c r="P52" s="75"/>
+      <c r="N52" s="59"/>
+      <c r="O52" s="59"/>
+      <c r="P52" s="59"/>
     </row>
     <row r="53" spans="2:16">
-      <c r="B53" s="78" t="s">
+      <c r="B53" s="64" t="s">
         <v>180</v>
       </c>
-      <c r="C53" s="78"/>
-      <c r="D53" s="78"/>
-      <c r="E53" s="78"/>
-      <c r="F53" s="78"/>
-      <c r="G53" s="78"/>
-      <c r="H53" s="78"/>
-      <c r="I53" s="78"/>
-      <c r="J53" s="78"/>
-      <c r="K53" s="78"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="64"/>
+      <c r="E53" s="64"/>
+      <c r="F53" s="64"/>
+      <c r="G53" s="64"/>
+      <c r="H53" s="64"/>
+      <c r="I53" s="64"/>
+      <c r="J53" s="64"/>
+      <c r="K53" s="64"/>
     </row>
     <row r="54" spans="2:16">
-      <c r="B54" s="78" t="s">
+      <c r="B54" s="64" t="s">
         <v>181</v>
       </c>
-      <c r="C54" s="78"/>
-      <c r="D54" s="78"/>
-      <c r="E54" s="78"/>
-      <c r="F54" s="78"/>
-      <c r="G54" s="78"/>
-      <c r="H54" s="78"/>
-      <c r="I54" s="78"/>
-      <c r="J54" s="78"/>
-      <c r="K54" s="78"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="64"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="64"/>
+      <c r="H54" s="64"/>
+      <c r="I54" s="64"/>
+      <c r="J54" s="64"/>
+      <c r="K54" s="64"/>
     </row>
     <row r="55" spans="2:16">
-      <c r="B55" s="78" t="s">
+      <c r="B55" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="C55" s="78"/>
-      <c r="D55" s="78"/>
-      <c r="E55" s="78"/>
-      <c r="F55" s="78"/>
-      <c r="G55" s="78"/>
-      <c r="H55" s="78"/>
-      <c r="I55" s="78"/>
-      <c r="J55" s="78"/>
-      <c r="K55" s="78"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="64"/>
+      <c r="F55" s="64"/>
+      <c r="G55" s="64"/>
+      <c r="H55" s="64"/>
+      <c r="I55" s="64"/>
+      <c r="J55" s="64"/>
+      <c r="K55" s="64"/>
     </row>
     <row r="56" spans="2:16">
-      <c r="B56" s="78" t="s">
+      <c r="B56" s="64" t="s">
         <v>183</v>
       </c>
-      <c r="C56" s="78"/>
-      <c r="D56" s="78"/>
-      <c r="E56" s="78"/>
-      <c r="F56" s="78"/>
-      <c r="G56" s="78"/>
-      <c r="H56" s="78"/>
-      <c r="I56" s="78"/>
-      <c r="J56" s="78"/>
-      <c r="K56" s="78"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="64"/>
+      <c r="I56" s="64"/>
+      <c r="J56" s="64"/>
+      <c r="K56" s="64"/>
     </row>
     <row r="57" spans="2:16">
-      <c r="B57" s="78" t="s">
+      <c r="B57" s="64" t="s">
         <v>184</v>
       </c>
-      <c r="C57" s="78"/>
-      <c r="D57" s="78"/>
-      <c r="E57" s="78"/>
-      <c r="F57" s="78"/>
-      <c r="G57" s="78"/>
-      <c r="H57" s="78"/>
-      <c r="I57" s="78"/>
-      <c r="J57" s="78"/>
-      <c r="K57" s="78"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="64"/>
+      <c r="E57" s="64"/>
+      <c r="F57" s="64"/>
+      <c r="G57" s="64"/>
+      <c r="H57" s="64"/>
+      <c r="I57" s="64"/>
+      <c r="J57" s="64"/>
+      <c r="K57" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B57:K57"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="B53:K53"/>
-    <mergeCell ref="B54:K54"/>
-    <mergeCell ref="B55:K55"/>
-    <mergeCell ref="B56:K56"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
     <mergeCell ref="I41:K41"/>
     <mergeCell ref="I44:J44"/>
     <mergeCell ref="I46:J46"/>
@@ -26881,9 +26859,35 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B57:K57"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="B53:K53"/>
+    <mergeCell ref="B54:K54"/>
+    <mergeCell ref="B55:K55"/>
+    <mergeCell ref="B56:K56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="69" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="65" orientation="portrait" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="11" max="1048575" man="1"/>
   </colBreaks>
@@ -30118,16 +30122,16 @@
       <c r="B1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="60" t="str">
+      <c r="E1" s="76" t="str">
         <f>IF(B2&lt;&gt;B3, "A NEW VERSION OF THE WORKSHEET IS AVAILABLE", "")</f>
         <v/>
       </c>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -30136,15 +30140,15 @@
       <c r="B2" s="4">
         <v>2.1</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
